--- a/TestData/JTPS-DEVQA/SettleAmountTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SettleAmountTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>wnd_SettleAmountTypes</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>SettleAmount</t>
   </si>
 </sst>
 </file>
@@ -978,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,8 +1071,12 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>18</v>
@@ -1111,8 +1121,12 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>18</v>

--- a/TestData/JTPS-DEVQA/SettleAmountTypes.xlsx
+++ b/TestData/JTPS-DEVQA/SettleAmountTypes.xlsx
@@ -352,7 +352,7 @@
     <t>TS001</t>
   </si>
   <si>
-    <t>SettleAmount</t>
+    <t xml:space="preserve">Settle Amount Types </t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2069,7 +2072,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="28"/>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
